--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Griffith University\Second Year\First Trimester\2802ICT - Intelligent Systems\assessment\ass1CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D59811-4CF4-49BA-9C46-CCADFEF4DDA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{951D7B27-004A-4D3B-B2CB-35DED955E665}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{900729BF-E6A4-4693-B857-D8106561494C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{53CB858A-427C-4403-994D-74452B611C3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{53CB858A-427C-4403-994D-74452B611C3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BFS Time" sheetId="1" r:id="rId1"/>
+    <sheet name="Hill Climbing" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulated Annealing" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t xml:space="preserve">N = </t>
   </si>
@@ -64,6 +66,33 @@
   </si>
   <si>
     <t>N = 30 years</t>
+  </si>
+  <si>
+    <t>Temperature = 0</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SARR</t>
+  </si>
+  <si>
+    <t>Temperature = 10,000 &amp; cooling = 0.98</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>HCSS</t>
+  </si>
+  <si>
+    <t>HCRR</t>
+  </si>
+  <si>
+    <t>HC</t>
   </si>
 </sst>
 </file>
@@ -100,15 +129,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -117,6 +152,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -249,39 +299,241 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +644,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>'BFS Time'!$D$4:$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -478,7 +730,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$20</c:f>
+              <c:f>'BFS Time'!$C$8:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -526,7 +778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$20</c:f>
+              <c:f>'BFS Time'!$D$8:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -697,7 +949,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -895,7 +1147,1089 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Hill Climbing Searches</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3239147575688844E-2"/>
+          <c:y val="7.7968429705628339E-2"/>
+          <c:w val="0.78452216929673912"/>
+          <c:h val="0.82486512693547109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9164360627761035E-2"/>
+                  <c:y val="-9.0988068178205744E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hill Climbing'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hill Climbing'!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.6000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9589999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9303000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6774999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15993499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.202901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76786200000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.945299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.68699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3643100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0031299999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0260499999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.209899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.5625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.048500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9559-4858-8E30-6AC4F11E62B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hill Climbing Stochastic Search</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5748722767678734E-2"/>
+                  <c:y val="-8.4093822387339232E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hill Climbing'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hill Climbing'!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.75E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0219999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2244E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3147999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13850499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19014200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81885699999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88170300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7022600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2916799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4827000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0723199999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.795199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.3749</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.153600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9559-4858-8E30-6AC4F11E62B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Hill Climbing Random Restart</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2456541697719884E-2"/>
+                  <c:y val="-1.3278229360749032E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hill Climbing'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hill Climbing'!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.95E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2829999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0973E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5018999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14929100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55074999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1645700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4639500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1688200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0918199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9277100000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8219000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.8446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.650199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9559-4858-8E30-6AC4F11E62B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46594767"/>
+        <c:axId val="2017926511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46594767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>N = </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017926511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2017926511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Seconds spent to solve</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0398613518197574E-2"/>
+              <c:y val="0.44734140346924045"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46594767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8467078405322791"/>
+          <c:y val="6.3362831638504771E-2"/>
+          <c:w val="0.12962958642515365"/>
+          <c:h val="0.82618353660042299"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1455,6 +2789,485 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1476,6 +3289,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F116327-D677-490B-996F-7E2667A2D430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E85C9E9-A40D-4811-820E-C3AB55920CE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,10 +3647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8423C0-542A-4CC9-BEE5-1DDDFBE1174F}">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +3752,7 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="8">
-        <f t="shared" ref="C7:C30" si="0">C6+1</f>
+        <f t="shared" ref="C7:C20" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2305,6 +4159,9 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
+      <c r="H24">
+        <v>30</v>
+      </c>
       <c r="I24">
         <f>0.000000002*EXP(1.6041*30)</f>
         <v>1587023465778.8042</v>
@@ -2316,25 +4173,1044 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>0.000000002*EXP(1.6041*H25)</f>
+        <v>9.9467630890513698E-9</v>
+      </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I53" si="5">0.000000002*EXP(1.6041*H26)</f>
+        <v>4.9469047974857375E-8</v>
+      </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>2.4602845022341148E-7</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
+      <c r="H28">
+        <f>H27+1</f>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>1.2235933537693706E-6</v>
+      </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
+      <c r="H29">
+        <f t="shared" ref="H29:H53" si="6">H28+1</f>
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>6.0853966036408735E-6</v>
+      </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>3.0264999159666825E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>1.5051938826577218E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>7.4859034769428779E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>3.7230254196328394E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>1.8516025911801934E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>9.2087261547715016E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>0.45798508706731672</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>2.2777345796885795</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>11.328043121951138</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>56.33868059830305</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>280.19375433052738</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>1393.5104466788071</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>6930.4591376161388</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>34467.817570109466</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>171421.60778326035</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>852545.06048218964</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>4240031.8696786361</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>21087296.248860516</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>104875169.98802885</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>521584234.89745432</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>2594037407.7545552</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>12901137769.535786</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>64162280486.392235</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>319103501625.70441</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432C84DE-72BA-4C8E-9C26-05D75F4C5552}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>0.000086</f>
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="D3">
+        <v>4.75E-4</v>
+      </c>
+      <c r="E3">
+        <v>1.95E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" ref="B4:B17" si="0" xml:space="preserve"> B3+ 10</f>
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2.9589999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>6.0219999999999996E-3</v>
+      </c>
+      <c r="E4">
+        <v>2.2829999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1.9303000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.2244E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.0973E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>4.6774999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.3147999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.5018999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>0.15993499999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.13850499999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.14929100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>0.202901</v>
+      </c>
+      <c r="D8">
+        <v>0.19014200000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.55074999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>0.76786200000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.81885699999999995</v>
+      </c>
+      <c r="E9">
+        <v>1.1645700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>0.945299</v>
+      </c>
+      <c r="D10">
+        <v>0.88170300000000001</v>
+      </c>
+      <c r="E10">
+        <v>3.4639500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>1.68699</v>
+      </c>
+      <c r="D11">
+        <v>1.7022600000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.1688200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>3.3643100000000001</v>
+      </c>
+      <c r="D12">
+        <v>3.2916799999999999</v>
+      </c>
+      <c r="E12">
+        <v>3.0918199999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>6.0031299999999996</v>
+      </c>
+      <c r="D13">
+        <v>5.4827000000000004</v>
+      </c>
+      <c r="E13">
+        <v>4.9277100000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>8.0260499999999997</v>
+      </c>
+      <c r="D14">
+        <v>8.0723199999999995</v>
+      </c>
+      <c r="E14">
+        <v>7.8219000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>10.209899999999999</v>
+      </c>
+      <c r="D15">
+        <v>13.795199999999999</v>
+      </c>
+      <c r="E15">
+        <v>21.8446</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <v>14.5625</v>
+      </c>
+      <c r="D16">
+        <v>16.3749</v>
+      </c>
+      <c r="E16">
+        <v>13.506600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>21.048500000000001</v>
+      </c>
+      <c r="D17">
+        <v>21.153600000000001</v>
+      </c>
+      <c r="E17">
+        <v>39.650199999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F726000-30B4-4206-89BD-2575B10C28E8}">
+  <dimension ref="B1:G26"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
+        <v>200</v>
+      </c>
+      <c r="C4" s="16">
+        <v>7.6763700000000004</v>
+      </c>
+      <c r="D4" s="17">
+        <v>19.549099999999999</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="16">
+        <v>8.2110500000000002</v>
+      </c>
+      <c r="G4" s="17">
+        <v>13.744300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="20">
+        <f>B4+5</f>
+        <v>205</v>
+      </c>
+      <c r="C5" s="16">
+        <v>15.295199999999999</v>
+      </c>
+      <c r="D5" s="17">
+        <v>41.034599999999998</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="16">
+        <v>15.815300000000001</v>
+      </c>
+      <c r="G5" s="17">
+        <v>15.1333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
+        <f t="shared" ref="B6:B23" si="0">B5+5</f>
+        <v>210</v>
+      </c>
+      <c r="C6" s="16">
+        <v>5.9945000000000004</v>
+      </c>
+      <c r="D6" s="17">
+        <v>15.539300000000001</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="16">
+        <v>6.1112000000000002</v>
+      </c>
+      <c r="G6" s="17">
+        <v>18.876899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="C7" s="16">
+        <v>9.3238099999999999</v>
+      </c>
+      <c r="D7" s="17">
+        <v>25.123799999999999</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="16">
+        <v>8.4851799999999997</v>
+      </c>
+      <c r="G7" s="17">
+        <v>27.2623</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C8" s="16">
+        <v>6.4506300000000003</v>
+      </c>
+      <c r="D8" s="17">
+        <v>47.169499999999999</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="16">
+        <v>36.2226</v>
+      </c>
+      <c r="G8" s="17">
+        <v>14.2811</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C9" s="16">
+        <v>8.3713899999999999</v>
+      </c>
+      <c r="D9" s="17">
+        <v>27.700199999999999</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="16">
+        <v>6.7152500000000002</v>
+      </c>
+      <c r="G9" s="17">
+        <v>8.5185899999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="C10" s="16">
+        <v>6.6021200000000002</v>
+      </c>
+      <c r="D10" s="17">
+        <v>27.148499999999999</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="16">
+        <v>9.0588300000000004</v>
+      </c>
+      <c r="G10" s="17">
+        <v>21.375900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="C11" s="16">
+        <v>21.138500000000001</v>
+      </c>
+      <c r="D11" s="17">
+        <v>24.145600000000002</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="16">
+        <v>6.3156499999999998</v>
+      </c>
+      <c r="G11" s="17">
+        <v>16.648800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C12" s="16">
+        <v>12.1982</v>
+      </c>
+      <c r="D12" s="17">
+        <v>61.704799999999999</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="16">
+        <v>13.514900000000001</v>
+      </c>
+      <c r="G12" s="17">
+        <v>11.457000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="C13" s="16">
+        <v>19.964400000000001</v>
+      </c>
+      <c r="D13" s="17">
+        <v>15.03</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="16">
+        <v>17.808399999999999</v>
+      </c>
+      <c r="G13" s="17">
+        <v>34.015599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C14" s="16">
+        <v>20.569199999999999</v>
+      </c>
+      <c r="D14" s="17">
+        <v>54.313899999999997</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="16">
+        <v>26.505700000000001</v>
+      </c>
+      <c r="G14" s="17">
+        <v>63.374200000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="C15" s="16">
+        <v>11.720499999999999</v>
+      </c>
+      <c r="D15" s="17">
+        <v>38.154499999999999</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="16">
+        <v>29.765899999999998</v>
+      </c>
+      <c r="G15" s="17">
+        <v>95.224100000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="C16" s="16">
+        <v>15.6325</v>
+      </c>
+      <c r="D16" s="17">
+        <v>23.808599999999998</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="16">
+        <v>12.9404</v>
+      </c>
+      <c r="G16" s="17">
+        <v>69.949600000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="C17" s="16">
+        <v>33.116799999999998</v>
+      </c>
+      <c r="D17" s="17">
+        <v>63.33</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="16">
+        <v>17.343399999999999</v>
+      </c>
+      <c r="G17" s="17">
+        <v>39.748199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C18" s="16">
+        <v>22.735700000000001</v>
+      </c>
+      <c r="D18" s="17">
+        <v>52.744999999999997</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="16">
+        <v>32.4133</v>
+      </c>
+      <c r="G18" s="17">
+        <v>18.226700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="C19" s="16">
+        <v>26.564900000000002</v>
+      </c>
+      <c r="D19" s="17">
+        <v>67.295000000000002</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="16">
+        <v>31.533000000000001</v>
+      </c>
+      <c r="G19" s="17">
+        <v>77.695800000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="C20" s="16">
+        <v>87.529700000000005</v>
+      </c>
+      <c r="D20" s="17">
+        <v>55.209899999999998</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="16">
+        <v>13.959300000000001</v>
+      </c>
+      <c r="G20" s="17">
+        <v>95.950699999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="C21" s="16">
+        <v>23.9483</v>
+      </c>
+      <c r="D21" s="17">
+        <v>39.184800000000003</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="16">
+        <v>75.637100000000004</v>
+      </c>
+      <c r="G21" s="17">
+        <v>42.873699999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="C22" s="16">
+        <v>12.9648</v>
+      </c>
+      <c r="D22" s="17">
+        <v>103.889</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="16">
+        <v>14.3809</v>
+      </c>
+      <c r="G22" s="17">
+        <v>22.2163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="C23" s="28">
+        <v>59.739800000000002</v>
+      </c>
+      <c r="D23" s="29">
+        <v>51.148899999999998</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="28">
+        <v>48.712499999999999</v>
+      </c>
+      <c r="G23" s="29">
+        <v>34.376199999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="34">
+        <f>MEDIAN(C4:C23)</f>
+        <v>15.463850000000001</v>
+      </c>
+      <c r="D25" s="35">
+        <f>MEDIAN(D4:D23)</f>
+        <v>40.109700000000004</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34">
+        <f>MEDIAN(F4:F23)</f>
+        <v>15.098100000000001</v>
+      </c>
+      <c r="G25" s="35">
+        <f>MEDIAN(G4:G23)</f>
+        <v>24.7393</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="18">
+        <f>AVERAGE(C4:C23)</f>
+        <v>21.376866</v>
+      </c>
+      <c r="D26" s="19">
+        <f>AVERAGE(D4:D23)</f>
+        <v>42.661249999999988</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="18">
+        <f>AVERAGE(F4:F23)</f>
+        <v>21.572492999999998</v>
+      </c>
+      <c r="G26" s="19">
+        <f>AVERAGE(G4:G23)</f>
+        <v>37.047464500000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>